--- a/data_h1/filtered_data/Risk_Free_Rate.xlsx
+++ b/data_h1/filtered_data/Risk_Free_Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaspar_zimbrek/Desktop/Spring 2025/FIN-429-Sustainable &amp; entrepreneurial finance/Homework/Data HW USE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameli\MA4_local\SEF-1\data_h1\filtered_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0DCCDF-F519-F944-A952-4C4AFD4E87A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F911E6-D5DB-474D-994C-524B394C6B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F-F_Research_Data_Factors" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RF(%)</t>
+  </si>
+  <si>
+    <t>RF true</t>
   </si>
 </sst>
 </file>
@@ -547,49 +550,49 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="42" builtinId="5"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Pourcentage" xfId="42" builtinId="5"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,7 +608,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -924,20 +927,20 @@
   <dimension ref="A1:KR301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:304" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:304" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>200001</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>200002</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>200003</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>4.6999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>200004</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>200005</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>200006</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>200007</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>200008</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>200009</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>200010</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>5.6000000000000008E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>200011</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>200012</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>200101</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>200102</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:304" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:304" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>200103</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>200104</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>3.9000000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>200105</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>200106</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>200107</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>200108</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>200109</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>200110</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>200111</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>200112</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>200201</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>200202</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>200203</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>200204</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>200205</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>200206</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>200207</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>200208</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>200209</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>200210</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>200211</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>200212</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>200301</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>200302</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>200303</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>200304</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>200305</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>200306</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>200307</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>200308</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>200309</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>200310</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>200311</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>200312</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>200401</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>200402</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>200403</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>200404</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>200405</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>200406</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>200407</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>200408</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>200409</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>200410</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>200411</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>200412</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>200501</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>200502</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>200503</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>200504</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>200505</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>200506</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>200507</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>200508</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>200509</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>200510</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>200511</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>200512</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>200601</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>200602</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>200603</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>200604</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>200605</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>200606</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>200607</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>200608</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>200609</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>200610</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>200611</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>200612</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>200701</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>200702</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>200703</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>200704</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>200705</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>200706</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>200707</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>200708</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>200709</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>200710</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>200711</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>200712</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>200801</v>
       </c>
@@ -3902,7 +3905,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>200802</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>200803</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>200804</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>200805</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>200806</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>200807</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>200808</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>200809</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>200810</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>200811</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>200812</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>200901</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>200902</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>200903</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>200904</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>200905</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>200906</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>200907</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>200908</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>200909</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>200910</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>200911</v>
       </c>
@@ -4166,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>200912</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>201001</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>201002</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>201003</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>201004</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>201005</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>201006</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>201007</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>201008</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>201009</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>201010</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>201011</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>201012</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>201101</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>201102</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>201103</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>201104</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>201105</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>201106</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>201107</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>201108</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>201109</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>201110</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>201111</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>201112</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>201201</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>201202</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>201203</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>201204</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>201205</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>201206</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>201207</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>201208</v>
       </c>
@@ -4562,7 +4565,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>201209</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>201210</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>201211</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>201212</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>201301</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>201302</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>201303</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>201304</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>201305</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>201306</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>201307</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>201308</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>201309</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>201310</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>201311</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>201312</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>201401</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>201402</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>201403</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>201404</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>201405</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>201406</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>201407</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>201408</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>201409</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>201410</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>201411</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>201412</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>201501</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>201502</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>201503</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>201504</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>201505</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>201506</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>201507</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>201508</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>201509</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>201510</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>201511</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>201512</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>201601</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>201602</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>201603</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>201604</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>201605</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>201606</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>201607</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>201608</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201609</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>201610</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>201611</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>201612</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>201701</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>201702</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>201703</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>201704</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>201705</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>201706</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>201707</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>7.000000000000001E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>201708</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>201709</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>201710</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>201711</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>201712</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>201801</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>201802</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>201803</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>201804</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>201805</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>201806</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>201807</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>201808</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>201809</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>201810</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>201811</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>201812</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>201901</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>201902</v>
       </c>
@@ -5498,7 +5501,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>201903</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>201904</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>201905</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>201906</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>201907</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>201908</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>201909</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>201910</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>201911</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>201912</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>1.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>202001</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>202002</v>
       </c>
@@ -5642,7 +5645,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>202003</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>202004</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>202005</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>202006</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>202007</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>202008</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>202009</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>202010</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>202011</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>202012</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>202101</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>202102</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>202103</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>202104</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>202105</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>202106</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>202107</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>202108</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>202109</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>202110</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>202111</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>202112</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>202201</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>202202</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>202203</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>202204</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>202205</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>202206</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>202207</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>202208</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>202209</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>202210</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>202211</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>202212</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>202301</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>202302</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>202303</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>202304</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>202305</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>202306</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>202307</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>4.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>202308</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>4.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>202309</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>202310</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>4.6999999999999993E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>202311</v>
       </c>
@@ -6182,7 +6185,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>202312</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>202401</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>4.6999999999999993E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>202402</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>202403</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>202404</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>4.6999999999999993E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>202405</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>202406</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>202407</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>4.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>202408</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>202409</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>202410</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>3.9000000000000003E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>202411</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>202412</v>
       </c>

--- a/data_h1/filtered_data/Risk_Free_Rate.xlsx
+++ b/data_h1/filtered_data/Risk_Free_Rate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameli\MA4_local\SEF-1\data_h1\filtered_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F911E6-D5DB-474D-994C-524B394C6B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373681E6-8E66-40CF-9B20-C0B2AA216C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F-F_Research_Data_Factors" sheetId="1" r:id="rId1"/>
+    <sheet name="RF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>RF(%)</t>
   </si>
@@ -545,9 +546,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -926,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KR301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170:C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -6344,4 +6346,1080 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B25C45-4EF8-4D54-997B-BAFB80D5486B}">
+  <dimension ref="A1:B133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>41789</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>41851</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>41880</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>41971</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>42034</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>42062</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>42153</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>42307</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B26">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B28">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>42489</v>
+      </c>
+      <c r="B29">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B30">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B31">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>42580</v>
+      </c>
+      <c r="B32">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B33">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B34">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B35">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B36">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>42734</v>
+      </c>
+      <c r="B37">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B38">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B39">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B40">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>42853</v>
+      </c>
+      <c r="B41">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B42">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B43">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B44">
+        <v>7.000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B45">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>43007</v>
+      </c>
+      <c r="B46">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B47">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B48">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B49">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B50">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B51">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B52">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B53">
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B54">
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B55">
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B56">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B57">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B58">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B59">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B60">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B61">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B62">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B63">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>43553</v>
+      </c>
+      <c r="B64">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B65">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B66">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B67">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B68">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>43707</v>
+      </c>
+      <c r="B69">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B70">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B71">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>43798</v>
+      </c>
+      <c r="B72">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B73">
+        <v>1.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B74">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B75">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B76">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B78">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B79">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B80">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B81">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B82">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B83">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B84">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B85">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B86">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B97">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B100">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B102">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B103">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B104">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B105">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B106">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B107">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B108">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B109">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B110">
+        <v>3.4999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B111">
+        <v>3.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B112">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B113">
+        <v>3.4999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B114">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B115">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B116">
+        <v>4.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B117">
+        <v>4.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B118">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B119">
+        <v>4.6999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B120">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B121">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B122">
+        <v>4.6999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B123">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B124">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B125">
+        <v>4.6999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B126">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B127">
+        <v>4.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B128">
+        <v>4.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B129">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B130">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B131">
+        <v>3.9000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B132">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B133">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>